--- a/Documentacion/Recibido/Abril/TESTlibro.xlsx
+++ b/Documentacion/Recibido/Abril/TESTlibro.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\mecanizadas\Documentacion\Recibido\Abril\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="12540"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="libro" sheetId="1" r:id="rId1"/>
@@ -108,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,7 +629,6 @@
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -651,6 +645,7 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -711,7 +706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,10 +738,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -778,7 +772,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -954,16 +947,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,12 +1021,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>202404</v>
       </c>
       <c r="B2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C2">
         <v>2404</v>
@@ -1090,7 +1083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="F7" s="2"/>
     </row>
   </sheetData>
